--- a/biology/Zoologie/Corasoides_motumae/Corasoides_motumae.xlsx
+++ b/biology/Zoologie/Corasoides_motumae/Corasoides_motumae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corasoides motumae est une espèce d'araignées aranéomorphes de la famille des Desidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corasoides motumae est une espèce d'araignées aranéomorphes de la famille des Desidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1]. Elle se rencontre vers Monga et sur le mont Clyde[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie. Elle se rencontre vers Monga et sur le mont Clyde.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 7,4 mm de long sur 5,2 mm et l'abdomen 6,3 mm de long sur 3,8 mm et la carapace de la femelle paratype mesure 7,4 mm de long sur 5,1 mm et l'abdomen 7,6 mm de long sur 5,1 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 7,4 mm de long sur 5,2 mm et l'abdomen 6,3 mm de long sur 3,8 mm et la carapace de la femelle paratype mesure 7,4 mm de long sur 5,1 mm et l'abdomen 7,6 mm de long sur 5,1 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Helen Motum Smith[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Helen Motum Smith.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Humphrey, 2017 : A revision and cladistic analysis of the genus Corasoides Butler (Araneae: Desidae) with descriptions of nine new species. Records of the Australian Museum, vol. 69, no 1, p. 15-64 (texte intégral).</t>
         </is>
